--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1909941.198524289</v>
+        <v>2018092.291438582</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9932302.316281114</v>
+        <v>9938345.326868374</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>119.1445594959632</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>63.92731930591452</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62.40803715777612</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>86.67198244744975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>36.22630841630917</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.9331301905424</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>14.38544238362227</v>
       </c>
       <c r="H7" t="n">
-        <v>69.00555870208078</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>220.7682594043746</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>56.13525615996487</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>121.7653892614125</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>174.8690202829036</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6324680438218387</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.24750433885971</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>97.9841306222406</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>119.6255281319618</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.56584948763671</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.4385057595942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.6126310577748</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>87.61360486368916</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>32.84316668127778</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>13.94435783112377</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>46.86766651429046</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H43" t="n">
-        <v>64.91921363453139</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3949,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>91.8999605662476</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.233203697441</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4334,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2441.991288505243</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2233.245647111068</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1979.664586375247</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1648.601699031677</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1295.833043761563</v>
+        <v>1704.376689122635</v>
       </c>
       <c r="X2" t="n">
-        <v>1295.833043761563</v>
+        <v>1330.910930861555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1295.833043761563</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4391,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>527.264525153022</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844937</v>
+        <v>607.1380332666176</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>970.4000522258377</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.2213908674011</v>
+        <v>307.730426513536</v>
       </c>
       <c r="C4" t="n">
-        <v>114.2852079394941</v>
+        <v>138.7942435856291</v>
       </c>
       <c r="D4" t="n">
-        <v>114.2852079394941</v>
+        <v>138.7942435856291</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>138.7942435856291</v>
       </c>
       <c r="F4" t="n">
         <v>51.24678656800311</v>
@@ -4516,22 +4518,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109311</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>504.0139700109311</v>
+        <v>307.730426513536</v>
       </c>
       <c r="Y4" t="n">
-        <v>283.2213908674011</v>
+        <v>307.730426513536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1540.262284242502</v>
       </c>
       <c r="D5" t="n">
-        <v>859.6852901911619</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4586,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2525.747097676611</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2317.001456282435</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190804</v>
+        <v>2317.001456282435</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190804</v>
+        <v>2317.001456282435</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.29040492069</v>
+        <v>2317.001456282435</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.913505738324</v>
+        <v>2317.001456282435</v>
       </c>
       <c r="Y5" t="n">
-        <v>1586.913505738324</v>
+        <v>1926.862124306624</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625327</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217527</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897736</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.7568984005233</v>
+        <v>679.633399870996</v>
       </c>
       <c r="C7" t="n">
-        <v>692.8207154726164</v>
+        <v>510.6972169430891</v>
       </c>
       <c r="D7" t="n">
-        <v>542.7040760602806</v>
+        <v>360.5805775307533</v>
       </c>
       <c r="E7" t="n">
-        <v>394.7909824778875</v>
+        <v>212.6674839483602</v>
       </c>
       <c r="F7" t="n">
-        <v>394.7909824778875</v>
+        <v>65.77753645044984</v>
       </c>
       <c r="G7" t="n">
-        <v>226.8045177861661</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.549477544053</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.549477544053</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.7568984005233</v>
+        <v>861.2818647012357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1771.418012197378</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>1771.418012197378</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1413.152313590628</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>2380.937841977166</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2380.937841977166</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2380.937841977166</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2380.937841977166</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2007.472083716086</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.0178522615</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.6240985328146</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>785.5190292000722</v>
       </c>
       <c r="Y10" t="n">
-        <v>521.2725633630544</v>
+        <v>785.5190292000722</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
@@ -5057,31 +5059,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.3929232910542</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>782.4567403631473</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>632.3401009508116</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.240688199802</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.823518162841</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.833967264824</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.041388121294</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>2715.159942084666</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>3241.424143276704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>3869.022106831311</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>4420.931837070598</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>4420.931837070598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5528,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656206</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253779</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429848</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429848</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2415.399947884443</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2232.545113539347</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2012.943648562288</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1723.868421906486</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1469.183933700599</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1179.766763663638</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>951.7772127656206</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.7772127656206</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2259.083513032701</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.73118040114</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>881.3796452313798</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232836</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,16 +6451,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C31" t="n">
-        <v>491.0125592675714</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>720.1998351122938</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433587</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>415.5933575433587</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>268.7034100454483</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.7034100454483</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>126.9915788876464</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>962.6357307816187</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>793.6995478537118</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.284195611858</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,34 +7192,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876647</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614346</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179045</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,46 +7417,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.530292372928</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>853.594109445021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>703.4774700326852</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>555.5643764502921</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>408.6744289523817</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>241.4783296672617</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7582,37 +7584,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487563</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1942.378057281676</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1652.960887244715</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1424.971336346698</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.178757203168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7637,61 +7639,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420919</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>186.6449060441816</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>186.6449060441816</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.2582814363238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.25823202432775</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>199.7516311504069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471572</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014946027473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.12774237126197</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>67.54000767002825</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>61.40075786968275</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>184.0188038644581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.3934744223431</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>144.634190040853</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.82035778288001</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.42266963728775</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>134.6711151870886</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>120.3791545843374</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H43" t="n">
-        <v>75.3754992116925</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>48.39475227997629</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>868803.2419726332</v>
+        <v>875339.3622238111</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.619783004</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307099</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26430,34 +26432,34 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171973</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766074.1806575103</v>
+        <v>-766074.1806575106</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.6029184099</v>
+        <v>348677.6029184093</v>
       </c>
       <c r="D6" t="n">
-        <v>187473.7546701963</v>
+        <v>348677.6029184095</v>
       </c>
       <c r="E6" t="n">
-        <v>130960.2596900225</v>
+        <v>-51112.72012716788</v>
       </c>
       <c r="F6" t="n">
-        <v>456372.7214973777</v>
+        <v>456372.7214973774</v>
       </c>
       <c r="G6" t="n">
-        <v>456372.7214973777</v>
+        <v>456372.7214973774</v>
       </c>
       <c r="H6" t="n">
+        <v>456372.7214973774</v>
+      </c>
+      <c r="I6" t="n">
         <v>456372.7214973776</v>
       </c>
-      <c r="I6" t="n">
-        <v>456372.7214973777</v>
-      </c>
       <c r="J6" t="n">
-        <v>288767.5436873952</v>
+        <v>288767.5436873949</v>
       </c>
       <c r="K6" t="n">
-        <v>456372.7214973775</v>
+        <v>456372.7214973776</v>
       </c>
       <c r="L6" t="n">
-        <v>408078.7514891869</v>
+        <v>456372.7214973778</v>
       </c>
       <c r="M6" t="n">
-        <v>371317.6935618661</v>
+        <v>323765.4277684509</v>
       </c>
       <c r="N6" t="n">
         <v>456372.7214973778</v>
       </c>
       <c r="O6" t="n">
-        <v>456372.7214973777</v>
+        <v>456372.7214973773</v>
       </c>
       <c r="P6" t="n">
         <v>456372.7214973777</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.307655902831186</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>285.3136494114985</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>84.02592548879305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>58.7490655754815</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>87.2259069824852</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>127.7979704879266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>151.9211576611819</v>
       </c>
       <c r="H7" t="n">
-        <v>78.2459504530481</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>161.1621106678871</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>150.5229288202689</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>45.4814318372153</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>50.8406351061335</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31279,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,19 +31846,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>673.7140351260975</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>232.75998908852</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33436,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647492</v>
       </c>
       <c r="N33" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>324.5433647340733</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>271.1474903386692</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>233.3139244897921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,28 +34780,28 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>417.8457776798087</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>311.938592662178</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000386</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>449.431160273939</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35492,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>531.5800012040792</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>98.78558167418976</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36835,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427309</v>
       </c>
       <c r="N33" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>182.409330812055</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37783,10 +37785,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37950,7 +37952,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060409</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>94.75954470991793</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018092.291438582</v>
+        <v>2013955.134188431</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.99112361440169</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>63.92731930591452</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>86.67198244744975</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>122.6942204073858</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>102.4482135770797</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.22630841630917</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.38544238362227</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>144.8586974472229</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>118.0668062549619</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>56.13525615996487</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>197.4147107719974</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>174.8690202829036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>59.96838802184498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>103.5745801383492</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>119.6255281319618</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>99.6514066310757</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>87.61360486368916</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>159.1991174528865</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>215.7213978539445</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G37" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20064764874441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.376689122635</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.910930861555</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.910930861555</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666176</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258377</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.730426513536</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="C4" t="n">
-        <v>138.7942435856291</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="D4" t="n">
-        <v>138.7942435856291</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="E4" t="n">
-        <v>138.7942435856291</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>535.7199774115534</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>307.730426513536</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.730426513536</v>
+        <v>281.0354892056661</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.262284242502</v>
+        <v>1367.208738248818</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>1367.208738248818</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2525.747097676611</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2317.001456282435</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2317.001456282435</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.001456282435</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2317.001456282435</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.001456282435</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1926.862124306624</v>
+        <v>1753.80857831294</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.633399870996</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>510.6972169430891</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>360.5805775307533</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>212.6674839483602</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>65.77753645044984</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>861.2818647012357</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>861.2818647012357</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.2818647012357</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>933.6727333395295</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>547.8844807412852</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>540.9389799920817</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2380.937841977166</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2380.937841977166</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2380.937841977166</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2380.937841977166</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2007.472083716086</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740275</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.8705643698324</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>603.8705643698324</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232072</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>962.1544032232072</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>785.5190292000722</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>785.5190292000722</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,34 +5272,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2259.083513032701</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.482048055643</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1750.40682139984</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1495.722333193953</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1206.305163156993</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310363</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310363</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.803094014472</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C31" t="n">
-        <v>870.3164745246296</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>720.1998351122938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408906</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2036.255356141217</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1747.180129485415</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1492.495641279528</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
-        <v>2854.44064873475</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="35">
@@ -6922,43 +6922,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25823202432775</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363241</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471572</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>182.9484181982418</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>61.40075786968275</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>58.82035778288001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>58.20633287440177</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>36.41624546988353</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26450,10 +26450,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766074.1806575106</v>
+        <v>-766074.1806575097</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.6029184093</v>
+        <v>348677.602918409</v>
       </c>
       <c r="D6" t="n">
-        <v>348677.6029184095</v>
+        <v>348677.6029184092</v>
       </c>
       <c r="E6" t="n">
-        <v>-51112.72012716788</v>
+        <v>-51460.09938152503</v>
       </c>
       <c r="F6" t="n">
-        <v>456372.7214973774</v>
+        <v>456025.3422430205</v>
       </c>
       <c r="G6" t="n">
-        <v>456372.7214973774</v>
+        <v>456025.3422430206</v>
       </c>
       <c r="H6" t="n">
-        <v>456372.7214973774</v>
+        <v>456025.3422430206</v>
       </c>
       <c r="I6" t="n">
-        <v>456372.7214973776</v>
+        <v>456025.3422430204</v>
       </c>
       <c r="J6" t="n">
-        <v>288767.5436873949</v>
+        <v>288420.164433038</v>
       </c>
       <c r="K6" t="n">
-        <v>456372.7214973776</v>
+        <v>456025.3422430207</v>
       </c>
       <c r="L6" t="n">
-        <v>456372.7214973778</v>
+        <v>456025.3422430208</v>
       </c>
       <c r="M6" t="n">
-        <v>323765.4277684509</v>
+        <v>323418.048514094</v>
       </c>
       <c r="N6" t="n">
-        <v>456372.7214973778</v>
+        <v>456025.3422430205</v>
       </c>
       <c r="O6" t="n">
-        <v>456372.7214973773</v>
+        <v>456025.3422430206</v>
       </c>
       <c r="P6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430207</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.6919180062812</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>285.3136494114985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>58.7490655754815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>24.55728874774309</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>252.2348280436032</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>87.2259069824852</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>151.9211576611819</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181422</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>293.4808965179921</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>150.5229288202689</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>54.72293255183064</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>50.8406351061335</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31846,10 +31846,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32569,7 +32569,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33438,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33520,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>311.938592662178</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>622.455381029198</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291977</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427309</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37168,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2013955.134188431</v>
+        <v>2015715.664491217</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>122.6942204073858</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -870,22 +870,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.6572806645754</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>102.4482135770797</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>159.31287472935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>113.4309740201551</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>118.0668062549619</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156772</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719974</v>
+        <v>197.4147107719969</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>35.03063761899501</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>103.5745801383492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>216.7094028874707</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>125.8152577453153</v>
       </c>
       <c r="T31" t="n">
-        <v>159.1991174528865</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V34" t="n">
-        <v>215.7213978539445</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>35.02467705292102</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>10.74993283584265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>40.36264995190433</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>40.96105405076426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>281.0354892056661</v>
+        <v>939.770065904978</v>
       </c>
       <c r="C4" t="n">
-        <v>281.0354892056661</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D4" t="n">
-        <v>281.0354892056661</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>281.0354892056661</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>281.0354892056661</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>281.0354892056661</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4518,22 +4518,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X4" t="n">
-        <v>281.0354892056661</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.0354892056661</v>
+        <v>1121.418530735218</v>
       </c>
     </row>
     <row r="5">
@@ -4549,70 +4549,70 @@
         <v>1367.208738248818</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1008.943039642067</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>623.1547870438228</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>212.1688822542152</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2106.577233583053</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312939</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312939</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.80857831294</v>
+        <v>1753.808578312939</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735138</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049854</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164205</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.39011576115</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>566.4817157534134</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>418.5686221710203</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>271.6786746731099</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>271.6786746731099</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886692</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.93843194628</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395295</v>
+        <v>859.6852901911619</v>
       </c>
       <c r="E8" t="n">
-        <v>547.8844807412852</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>540.9389799920817</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926625</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950813</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,25 +4880,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4944,43 +4944,43 @@
         <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5023,22 +5023,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T31" t="n">
-        <v>2036.255356141217</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U31" t="n">
-        <v>1747.180129485415</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V31" t="n">
-        <v>1492.495641279528</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W31" t="n">
-        <v>1203.078471242567</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.637687073287</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1470.485451982035</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1181.068281945074</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>953.0787310470569</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>732.2861519035267</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6922,22 +6922,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7025,13 +7025,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>962.6357307816187</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>793.6995478537118</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>643.582908441376</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>495.6698148589829</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>276.2988476925458</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>134.5870165347439</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515155</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>182.9484181982418</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>69.47507150177341</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>55.21102825632927</v>
       </c>
       <c r="T31" t="n">
-        <v>58.20633287440177</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V34" t="n">
-        <v>36.41624546988353</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.5907959652913</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>40.9031863666612</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830042</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467445</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-766074.1806575097</v>
       </c>
       <c r="C6" t="n">
-        <v>348677.602918409</v>
+        <v>348677.6029184096</v>
       </c>
       <c r="D6" t="n">
         <v>348677.6029184092</v>
       </c>
       <c r="E6" t="n">
-        <v>-51460.09938152503</v>
+        <v>-51147.45805260427</v>
       </c>
       <c r="F6" t="n">
-        <v>456025.3422430205</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="G6" t="n">
-        <v>456025.3422430206</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="H6" t="n">
-        <v>456025.3422430206</v>
+        <v>456337.983571942</v>
       </c>
       <c r="I6" t="n">
-        <v>456025.3422430204</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="J6" t="n">
-        <v>288420.164433038</v>
+        <v>288732.8057619592</v>
       </c>
       <c r="K6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="L6" t="n">
-        <v>456025.3422430208</v>
+        <v>456337.983571942</v>
       </c>
       <c r="M6" t="n">
-        <v>323418.048514094</v>
+        <v>323730.6898430155</v>
       </c>
       <c r="N6" t="n">
-        <v>456025.3422430205</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="O6" t="n">
-        <v>456025.3422430206</v>
+        <v>456337.9835719417</v>
       </c>
       <c r="P6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719417</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.55728874774309</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>4.92737268751938</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>252.2348280436032</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>252.234828043604</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.82053513497375</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181422</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>293.4808965179921</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627918</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183064</v>
+        <v>54.72293255183109</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,34 +31451,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947251</v>
+        <v>144.237359508534</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N6" t="n">
-        <v>615.5326193530511</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750476</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.346237972892</v>
+        <v>6.395920534175052</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
